--- a/02.製造/DB作業.xlsx
+++ b/02.製造/DB作業.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\tool\webapl\WonFesSys\WFS_Design\02.製造\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75072F25-CBC7-480E-B5FC-AA51C44C101B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="28035" windowHeight="11670" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="28040" windowHeight="11670" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="データ作成" sheetId="1" r:id="rId1"/>
     <sheet name="ｘｍｌ設定" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="179021"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="114">
   <si>
     <t xml:space="preserve">iwatakhr  </t>
   </si>
@@ -418,22 +431,26 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ｍｖｃ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>&lt;bean class="org.mybatis.spring.mapper.MapperFactoryBean"&gt;&lt;property name="mapperInterface" value="com.jp.wonfes.cmmn.dao.mapper.XXXMAPPER"&gt;&lt;/property&gt;&lt;property name="sqlSessionFactory" ref="sqlSessionFactory"&gt;&lt;/property&gt;&lt;/bean&gt;</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>mvc-config.xml</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>autowired</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>@Autowired private CLASS HENSU;</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
@@ -491,7 +508,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -549,6 +566,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -706,7 +741,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -769,6 +804,11 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -780,12 +820,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -827,7 +870,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -860,9 +903,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -895,6 +955,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1070,29 +1147,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:I90"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="14.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.453125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.453125" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" ht="26" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
@@ -1118,7 +1195,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <v>1</v>
       </c>
@@ -1142,7 +1219,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>52</v>
       </c>
@@ -1169,7 +1246,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>52</v>
       </c>
@@ -1198,12 +1275,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
         <v>2</v>
       </c>
@@ -1223,7 +1300,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" s="2">
         <v>1</v>
       </c>
@@ -1243,7 +1320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" s="2">
         <v>1</v>
       </c>
@@ -1263,7 +1340,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" s="2">
         <v>3</v>
       </c>
@@ -1283,7 +1360,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" s="2">
         <v>3</v>
       </c>
@@ -1303,12 +1380,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16" s="25" t="s">
         <v>2</v>
       </c>
@@ -1319,7 +1396,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B17" s="22">
         <v>1</v>
       </c>
@@ -1330,7 +1407,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B18" s="22">
         <v>1</v>
       </c>
@@ -1341,7 +1418,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B19" s="22">
         <v>3</v>
       </c>
@@ -1352,7 +1429,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B20" s="20">
         <v>3</v>
       </c>
@@ -1363,22 +1440,22 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
       <c r="D21" s="16"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
       <c r="D22" s="16"/>
     </row>
-    <row r="23" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B24" s="5" t="s">
         <v>2</v>
       </c>
@@ -1389,7 +1466,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B25" s="13">
         <v>1</v>
       </c>
@@ -1400,7 +1477,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B26" s="13">
         <v>1</v>
       </c>
@@ -1411,7 +1488,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" s="13">
         <v>1</v>
       </c>
@@ -1422,7 +1499,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B28" s="13">
         <v>1</v>
       </c>
@@ -1433,7 +1510,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B29" s="13">
         <v>1</v>
       </c>
@@ -1444,7 +1521,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B30" s="13">
         <v>1</v>
       </c>
@@ -1455,7 +1532,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B31" s="13">
         <v>3</v>
       </c>
@@ -1466,7 +1543,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B32" s="13">
         <v>3</v>
       </c>
@@ -1477,7 +1554,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B33" s="13">
         <v>3</v>
       </c>
@@ -1488,12 +1565,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>52</v>
       </c>
@@ -1507,7 +1584,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B37" s="13">
         <v>1</v>
       </c>
@@ -1521,7 +1598,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B38" s="13">
         <v>1</v>
       </c>
@@ -1533,7 +1610,7 @@
       </c>
       <c r="E38" s="15"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B39" s="13">
         <v>1</v>
       </c>
@@ -1545,7 +1622,7 @@
       </c>
       <c r="E39" s="15"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B40" s="13">
         <v>1</v>
       </c>
@@ -1557,7 +1634,7 @@
       </c>
       <c r="E40" s="15"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B41" s="13">
         <v>1</v>
       </c>
@@ -1571,7 +1648,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B42" s="13">
         <v>3</v>
       </c>
@@ -1585,7 +1662,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B43" s="13">
         <v>3</v>
       </c>
@@ -1597,7 +1674,7 @@
       </c>
       <c r="E43" s="6"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B44" s="13">
         <v>3</v>
       </c>
@@ -1611,13 +1688,13 @@
         <v>41</v>
       </c>
     </row>
-    <row r="49" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B52" s="4" t="s">
         <v>39</v>
       </c>
@@ -1628,7 +1705,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B53" s="2">
         <v>1</v>
       </c>
@@ -1639,7 +1716,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B54" s="2">
         <v>2</v>
       </c>
@@ -1650,7 +1727,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B55" s="2">
         <v>3</v>
       </c>
@@ -1661,7 +1738,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B56" s="2">
         <v>4</v>
       </c>
@@ -1672,7 +1749,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B57" s="2">
         <v>5</v>
       </c>
@@ -1683,7 +1760,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B58" s="2">
         <v>6</v>
       </c>
@@ -1694,7 +1771,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B59" s="2">
         <v>7</v>
       </c>
@@ -1705,7 +1782,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B60" s="2">
         <v>8</v>
       </c>
@@ -1716,12 +1793,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B65" s="4" t="s">
         <v>22</v>
       </c>
@@ -1735,7 +1812,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B66" s="2">
         <v>1</v>
       </c>
@@ -1749,7 +1826,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B67" s="2">
         <v>2</v>
       </c>
@@ -1763,7 +1840,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B68" s="2">
         <v>3</v>
       </c>
@@ -1777,7 +1854,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B69" s="2">
         <v>4</v>
       </c>
@@ -1791,27 +1868,27 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D70" s="8"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D73"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D74"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D75"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D76"/>
     </row>
-    <row r="77" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>12</v>
       </c>
@@ -1819,7 +1896,7 @@
       <c r="C78"/>
       <c r="D78"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B79" s="5" t="s">
         <v>3</v>
       </c>
@@ -1830,7 +1907,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B80" s="3" t="s">
         <v>0</v>
       </c>
@@ -1841,7 +1918,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>4</v>
       </c>
@@ -1849,7 +1926,7 @@
       <c r="C81"/>
       <c r="D81"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B82" s="5" t="s">
         <v>3</v>
       </c>
@@ -1858,7 +1935,7 @@
       </c>
       <c r="D82"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B83" s="3" t="s">
         <v>0</v>
       </c>
@@ -1866,7 +1943,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B84" s="3" t="s">
         <v>0</v>
       </c>
@@ -1874,12 +1951,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B87" s="4" t="s">
         <v>3</v>
       </c>
@@ -1890,7 +1967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B88" s="3" t="s">
         <v>0</v>
       </c>
@@ -1901,7 +1978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B89" s="3" t="s">
         <v>0</v>
       </c>
@@ -1912,7 +1989,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B90" s="3" t="s">
         <v>0</v>
       </c>
@@ -1930,50 +2007,54 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="32" customWidth="1"/>
     <col min="3" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="16.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="2" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="31" t="s">
+    <row r="1" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="36" t="s">
         <v>108</v>
       </c>
       <c r="B2" s="31" t="s">
         <v>109</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+        <v>110</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B6" s="28" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B8" s="3"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B9" s="28" t="s">
         <v>105</v>
       </c>
@@ -1981,180 +2062,266 @@
         <v>102</v>
       </c>
       <c r="D9" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="F9" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="E9" s="30" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="G9" s="33" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C10" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE($B$2,"SCHEMA",$B$7),"TABLE",$B10)</f>
+      <c r="C10" s="34" t="str">
+        <f t="shared" ref="C10:C19" si="0">SUBSTITUTE(SUBSTITUTE($B$2,"SCHEMA",$B$7),"TABLE",$B10)</f>
         <v>&lt;table schema="wfs" tableName="categories" /&gt;</v>
       </c>
-      <c r="D10" t="str">
-        <f t="shared" ref="D10:D19" si="0">SUBSTITUTE(PROPER(B10),"_","")&amp;"Mapper"</f>
+      <c r="D10" s="35" t="str">
+        <f t="shared" ref="D10:D11" si="1">SUBSTITUTE(PROPER(B10),"_","")&amp;"Mapper"</f>
         <v>CategoriesMapper</v>
       </c>
-      <c r="E10" t="str">
+      <c r="E10" s="34" t="str">
         <f>SUBSTITUTE($C$2,"XXXMAPPER",$D10)</f>
         <v>&lt;bean class="org.mybatis.spring.mapper.MapperFactoryBean"&gt;&lt;property name="mapperInterface" value="com.jp.wonfes.cmmn.dao.mapper.CategoriesMapper"&gt;&lt;/property&gt;&lt;property name="sqlSessionFactory" ref="sqlSessionFactory"&gt;&lt;/property&gt;&lt;/bean&gt;</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F10" s="35" t="str">
+        <f>LOWER((LEFT(D10,1)))&amp;RIGHT(D10,LEN(D10)-1)</f>
+        <v>categoriesMapper</v>
+      </c>
+      <c r="G10" s="34" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE($D$2,"CLASS",$D10),"HENSU",$F10)</f>
+        <v>@Autowired private CategoriesMapper categoriesMapper;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C11" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE($B$2,"SCHEMA",$B$7),"TABLE",$B11)</f>
+      <c r="C11" s="34" t="str">
+        <f t="shared" si="0"/>
         <v>&lt;table schema="wfs" tableName="dealers" /&gt;</v>
       </c>
-      <c r="D11" t="str">
-        <f t="shared" si="0"/>
+      <c r="D11" s="35" t="str">
+        <f t="shared" si="1"/>
         <v>DealersMapper</v>
       </c>
-      <c r="E11" t="str">
-        <f t="shared" ref="E11:E19" si="1">SUBSTITUTE($C$2,"XXXMAPPER",$D11)</f>
+      <c r="E11" s="34" t="str">
+        <f t="shared" ref="E11:E19" si="2">SUBSTITUTE($C$2,"XXXMAPPER",$D11)</f>
         <v>&lt;bean class="org.mybatis.spring.mapper.MapperFactoryBean"&gt;&lt;property name="mapperInterface" value="com.jp.wonfes.cmmn.dao.mapper.DealersMapper"&gt;&lt;/property&gt;&lt;property name="sqlSessionFactory" ref="sqlSessionFactory"&gt;&lt;/property&gt;&lt;/bean&gt;</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F11" s="35" t="str">
+        <f t="shared" ref="F11:F19" si="3">LOWER((LEFT(D11,1)))&amp;RIGHT(D11,LEN(D11)-1)</f>
+        <v>dealersMapper</v>
+      </c>
+      <c r="G11" s="34" t="str">
+        <f t="shared" ref="G11:G19" si="4">SUBSTITUTE(SUBSTITUTE($D$2,"CLASS",$D11),"HENSU",$F11)</f>
+        <v>@Autowired private DealersMapper dealersMapper;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C12" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE($B$2,"SCHEMA",$B$7),"TABLE",$B12)</f>
+      <c r="C12" s="34" t="str">
+        <f t="shared" si="0"/>
         <v>&lt;table schema="wfs" tableName="dealers_detail_products" /&gt;</v>
       </c>
-      <c r="D12" t="str">
+      <c r="D12" s="35" t="str">
         <f>SUBSTITUTE(PROPER(B12),"_","")&amp;"Mapper"</f>
         <v>DealersDetailProductsMapper</v>
       </c>
-      <c r="E12" t="str">
-        <f t="shared" si="1"/>
+      <c r="E12" s="34" t="str">
+        <f t="shared" si="2"/>
         <v>&lt;bean class="org.mybatis.spring.mapper.MapperFactoryBean"&gt;&lt;property name="mapperInterface" value="com.jp.wonfes.cmmn.dao.mapper.DealersDetailProductsMapper"&gt;&lt;/property&gt;&lt;property name="sqlSessionFactory" ref="sqlSessionFactory"&gt;&lt;/property&gt;&lt;/bean&gt;</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F12" s="35" t="str">
+        <f t="shared" si="3"/>
+        <v>dealersDetailProductsMapper</v>
+      </c>
+      <c r="G12" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v>@Autowired private DealersDetailProductsMapper dealersDetailProductsMapper;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C13" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE($B$2,"SCHEMA",$B$7),"TABLE",$B13)</f>
+      <c r="C13" s="34" t="str">
+        <f t="shared" si="0"/>
         <v>&lt;table schema="wfs" tableName="dealers_detail_products_categories" /&gt;</v>
       </c>
-      <c r="D13" t="str">
-        <f t="shared" ref="D13:D19" si="2">SUBSTITUTE(PROPER(B13),"_","")&amp;"Mapper"</f>
+      <c r="D13" s="35" t="str">
+        <f t="shared" ref="D13:D19" si="5">SUBSTITUTE(PROPER(B13),"_","")&amp;"Mapper"</f>
         <v>DealersDetailProductsCategoriesMapper</v>
       </c>
-      <c r="E13" t="str">
-        <f t="shared" si="1"/>
+      <c r="E13" s="34" t="str">
+        <f t="shared" si="2"/>
         <v>&lt;bean class="org.mybatis.spring.mapper.MapperFactoryBean"&gt;&lt;property name="mapperInterface" value="com.jp.wonfes.cmmn.dao.mapper.DealersDetailProductsCategoriesMapper"&gt;&lt;/property&gt;&lt;property name="sqlSessionFactory" ref="sqlSessionFactory"&gt;&lt;/property&gt;&lt;/bean&gt;</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F13" s="35" t="str">
+        <f t="shared" si="3"/>
+        <v>dealersDetailProductsCategoriesMapper</v>
+      </c>
+      <c r="G13" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v>@Autowired private DealersDetailProductsCategoriesMapper dealersDetailProductsCategoriesMapper;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C14" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE($B$2,"SCHEMA",$B$7),"TABLE",$B14)</f>
+      <c r="C14" s="34" t="str">
+        <f t="shared" si="0"/>
         <v>&lt;table schema="wfs" tableName="dealers_detail_products_imgs" /&gt;</v>
       </c>
-      <c r="D14" t="str">
+      <c r="D14" s="35" t="str">
+        <f t="shared" si="5"/>
+        <v>DealersDetailProductsImgsMapper</v>
+      </c>
+      <c r="E14" s="34" t="str">
         <f t="shared" si="2"/>
-        <v>DealersDetailProductsImgsMapper</v>
-      </c>
-      <c r="E14" t="str">
-        <f t="shared" si="1"/>
         <v>&lt;bean class="org.mybatis.spring.mapper.MapperFactoryBean"&gt;&lt;property name="mapperInterface" value="com.jp.wonfes.cmmn.dao.mapper.DealersDetailProductsImgsMapper"&gt;&lt;/property&gt;&lt;property name="sqlSessionFactory" ref="sqlSessionFactory"&gt;&lt;/property&gt;&lt;/bean&gt;</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F14" s="35" t="str">
+        <f t="shared" si="3"/>
+        <v>dealersDetailProductsImgsMapper</v>
+      </c>
+      <c r="G14" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v>@Autowired private DealersDetailProductsImgsMapper dealersDetailProductsImgsMapper;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C15" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE($B$2,"SCHEMA",$B$7),"TABLE",$B15)</f>
+      <c r="C15" s="34" t="str">
+        <f t="shared" si="0"/>
         <v>&lt;table schema="wfs" tableName="dealers_detail_products_saledate" /&gt;</v>
       </c>
-      <c r="D15" t="str">
+      <c r="D15" s="35" t="str">
+        <f t="shared" si="5"/>
+        <v>DealersDetailProductsSaledateMapper</v>
+      </c>
+      <c r="E15" s="34" t="str">
         <f t="shared" si="2"/>
-        <v>DealersDetailProductsSaledateMapper</v>
-      </c>
-      <c r="E15" t="str">
-        <f t="shared" si="1"/>
         <v>&lt;bean class="org.mybatis.spring.mapper.MapperFactoryBean"&gt;&lt;property name="mapperInterface" value="com.jp.wonfes.cmmn.dao.mapper.DealersDetailProductsSaledateMapper"&gt;&lt;/property&gt;&lt;property name="sqlSessionFactory" ref="sqlSessionFactory"&gt;&lt;/property&gt;&lt;/bean&gt;</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F15" s="35" t="str">
+        <f t="shared" si="3"/>
+        <v>dealersDetailProductsSaledateMapper</v>
+      </c>
+      <c r="G15" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v>@Autowired private DealersDetailProductsSaledateMapper dealersDetailProductsSaledateMapper;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE($B$2,"SCHEMA",$B$7),"TABLE",$B16)</f>
+      <c r="C16" s="34" t="str">
+        <f t="shared" si="0"/>
         <v>&lt;table schema="wfs" tableName="event_dates" /&gt;</v>
       </c>
-      <c r="D16" t="str">
+      <c r="D16" s="35" t="str">
+        <f t="shared" si="5"/>
+        <v>EventDatesMapper</v>
+      </c>
+      <c r="E16" s="34" t="str">
         <f t="shared" si="2"/>
-        <v>EventDatesMapper</v>
-      </c>
-      <c r="E16" t="str">
-        <f t="shared" si="1"/>
         <v>&lt;bean class="org.mybatis.spring.mapper.MapperFactoryBean"&gt;&lt;property name="mapperInterface" value="com.jp.wonfes.cmmn.dao.mapper.EventDatesMapper"&gt;&lt;/property&gt;&lt;property name="sqlSessionFactory" ref="sqlSessionFactory"&gt;&lt;/property&gt;&lt;/bean&gt;</v>
       </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="F16" s="35" t="str">
+        <f t="shared" si="3"/>
+        <v>eventDatesMapper</v>
+      </c>
+      <c r="G16" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v>@Autowired private EventDatesMapper eventDatesMapper;</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C17" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE($B$2,"SCHEMA",$B$7),"TABLE",$B17)</f>
+      <c r="C17" s="34" t="str">
+        <f t="shared" si="0"/>
         <v>&lt;table schema="wfs" tableName="usr" /&gt;</v>
       </c>
-      <c r="D17" t="str">
+      <c r="D17" s="35" t="str">
+        <f t="shared" si="5"/>
+        <v>UsrMapper</v>
+      </c>
+      <c r="E17" s="34" t="str">
         <f t="shared" si="2"/>
-        <v>UsrMapper</v>
-      </c>
-      <c r="E17" t="str">
-        <f t="shared" si="1"/>
         <v>&lt;bean class="org.mybatis.spring.mapper.MapperFactoryBean"&gt;&lt;property name="mapperInterface" value="com.jp.wonfes.cmmn.dao.mapper.UsrMapper"&gt;&lt;/property&gt;&lt;property name="sqlSessionFactory" ref="sqlSessionFactory"&gt;&lt;/property&gt;&lt;/bean&gt;</v>
       </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="F17" s="35" t="str">
+        <f t="shared" si="3"/>
+        <v>usrMapper</v>
+      </c>
+      <c r="G17" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v>@Autowired private UsrMapper usrMapper;</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C18" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE($B$2,"SCHEMA",$B$7),"TABLE",$B18)</f>
+      <c r="C18" s="34" t="str">
+        <f t="shared" si="0"/>
         <v>&lt;table schema="wfs" tableName="usr_detail_fav_products" /&gt;</v>
       </c>
-      <c r="D18" t="str">
+      <c r="D18" s="35" t="str">
+        <f t="shared" si="5"/>
+        <v>UsrDetailFavProductsMapper</v>
+      </c>
+      <c r="E18" s="34" t="str">
         <f t="shared" si="2"/>
-        <v>UsrDetailFavProductsMapper</v>
-      </c>
-      <c r="E18" t="str">
-        <f t="shared" si="1"/>
         <v>&lt;bean class="org.mybatis.spring.mapper.MapperFactoryBean"&gt;&lt;property name="mapperInterface" value="com.jp.wonfes.cmmn.dao.mapper.UsrDetailFavProductsMapper"&gt;&lt;/property&gt;&lt;property name="sqlSessionFactory" ref="sqlSessionFactory"&gt;&lt;/property&gt;&lt;/bean&gt;</v>
       </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="F18" s="35" t="str">
+        <f t="shared" si="3"/>
+        <v>usrDetailFavProductsMapper</v>
+      </c>
+      <c r="G18" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v>@Autowired private UsrDetailFavProductsMapper usrDetailFavProductsMapper;</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C19" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE($B$2,"SCHEMA",$B$7),"TABLE",$B19)</f>
+      <c r="C19" s="34" t="str">
+        <f t="shared" si="0"/>
         <v>&lt;table schema="wfs" tableName="usr_role" /&gt;</v>
       </c>
-      <c r="D19" t="str">
+      <c r="D19" s="35" t="str">
+        <f t="shared" si="5"/>
+        <v>UsrRoleMapper</v>
+      </c>
+      <c r="E19" s="34" t="str">
         <f t="shared" si="2"/>
-        <v>UsrRoleMapper</v>
-      </c>
-      <c r="E19" t="str">
-        <f t="shared" si="1"/>
         <v>&lt;bean class="org.mybatis.spring.mapper.MapperFactoryBean"&gt;&lt;property name="mapperInterface" value="com.jp.wonfes.cmmn.dao.mapper.UsrRoleMapper"&gt;&lt;/property&gt;&lt;property name="sqlSessionFactory" ref="sqlSessionFactory"&gt;&lt;/property&gt;&lt;/bean&gt;</v>
+      </c>
+      <c r="F19" s="35" t="str">
+        <f t="shared" si="3"/>
+        <v>usrRoleMapper</v>
+      </c>
+      <c r="G19" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v>@Autowired private UsrRoleMapper usrRoleMapper;</v>
       </c>
     </row>
   </sheetData>

--- a/02.製造/DB作業.xlsx
+++ b/02.製造/DB作業.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\tool\webapl\WonFesSys\WFS_Design\02.製造\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75072F25-CBC7-480E-B5FC-AA51C44C101B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="28040" windowHeight="11670" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="28035" windowHeight="11670"/>
   </bookViews>
   <sheets>
     <sheet name="データ作成" sheetId="1" r:id="rId1"/>
     <sheet name="ｘｍｌ設定" sheetId="2" r:id="rId2"/>
+    <sheet name="dao" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -28,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="119">
   <si>
     <t xml:space="preserve">iwatakhr  </t>
   </si>
@@ -446,11 +441,30 @@
     <t>@Autowired private CLASS HENSU;</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>DealerSearchMapper</t>
+  </si>
+  <si>
+    <t>mapper</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>package</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>com.jp.wonfes.dealer.dao.mapper</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;bean id="BEANID" class="org.mybatis.spring.mapper.MapperFactoryBean"&gt;&lt;property name="mapperInterface" value="MAPPERINTERFACE"&gt;&lt;/property&gt;&lt;property name="sqlSessionFactory" ref="sqlSessionFactory"&gt;&lt;/property&gt;&lt;/bean&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
@@ -508,7 +522,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -584,6 +598,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -741,7 +767,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -809,6 +835,13 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -816,6 +849,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFF99"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -828,7 +866,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -870,7 +908,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -903,26 +941,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -955,23 +976,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1147,29 +1151,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:I90"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="14.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.453125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.5" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
@@ -1195,7 +1201,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="2">
         <v>1</v>
       </c>
@@ -1219,7 +1225,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>52</v>
       </c>
@@ -1246,7 +1252,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>52</v>
       </c>
@@ -1275,12 +1281,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B10" s="4" t="s">
         <v>2</v>
       </c>
@@ -1300,7 +1306,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B11" s="2">
         <v>1</v>
       </c>
@@ -1320,7 +1326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B12" s="2">
         <v>1</v>
       </c>
@@ -1340,7 +1346,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B13" s="2">
         <v>3</v>
       </c>
@@ -1360,7 +1366,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B14" s="2">
         <v>3</v>
       </c>
@@ -1380,12 +1386,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B16" s="25" t="s">
         <v>2</v>
       </c>
@@ -1396,7 +1402,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B17" s="22">
         <v>1</v>
       </c>
@@ -1407,7 +1413,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B18" s="22">
         <v>1</v>
       </c>
@@ -1418,7 +1424,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B19" s="22">
         <v>3</v>
       </c>
@@ -1429,7 +1435,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B20" s="20">
         <v>3</v>
       </c>
@@ -1440,22 +1446,22 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
       <c r="D21" s="16"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
       <c r="D22" s="16"/>
     </row>
-    <row r="23" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B24" s="5" t="s">
         <v>2</v>
       </c>
@@ -1466,7 +1472,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B25" s="13">
         <v>1</v>
       </c>
@@ -1477,7 +1483,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B26" s="13">
         <v>1</v>
       </c>
@@ -1488,7 +1494,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B27" s="13">
         <v>1</v>
       </c>
@@ -1499,7 +1505,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B28" s="13">
         <v>1</v>
       </c>
@@ -1510,7 +1516,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B29" s="13">
         <v>1</v>
       </c>
@@ -1521,7 +1527,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B30" s="13">
         <v>1</v>
       </c>
@@ -1532,7 +1538,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B31" s="13">
         <v>3</v>
       </c>
@@ -1543,7 +1549,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B32" s="13">
         <v>3</v>
       </c>
@@ -1554,7 +1560,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B33" s="13">
         <v>3</v>
       </c>
@@ -1565,12 +1571,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>52</v>
       </c>
@@ -1584,7 +1590,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B37" s="13">
         <v>1</v>
       </c>
@@ -1598,7 +1604,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B38" s="13">
         <v>1</v>
       </c>
@@ -1610,7 +1616,7 @@
       </c>
       <c r="E38" s="15"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B39" s="13">
         <v>1</v>
       </c>
@@ -1622,7 +1628,7 @@
       </c>
       <c r="E39" s="15"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B40" s="13">
         <v>1</v>
       </c>
@@ -1634,7 +1640,7 @@
       </c>
       <c r="E40" s="15"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B41" s="13">
         <v>1</v>
       </c>
@@ -1648,7 +1654,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B42" s="13">
         <v>3</v>
       </c>
@@ -1662,7 +1668,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B43" s="13">
         <v>3</v>
       </c>
@@ -1674,7 +1680,7 @@
       </c>
       <c r="E43" s="6"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B44" s="13">
         <v>3</v>
       </c>
@@ -1688,13 +1694,13 @@
         <v>41</v>
       </c>
     </row>
-    <row r="49" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B52" s="4" t="s">
         <v>39</v>
       </c>
@@ -1705,7 +1711,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B53" s="2">
         <v>1</v>
       </c>
@@ -1716,7 +1722,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B54" s="2">
         <v>2</v>
       </c>
@@ -1727,7 +1733,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B55" s="2">
         <v>3</v>
       </c>
@@ -1738,7 +1744,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B56" s="2">
         <v>4</v>
       </c>
@@ -1749,7 +1755,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B57" s="2">
         <v>5</v>
       </c>
@@ -1760,7 +1766,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B58" s="2">
         <v>6</v>
       </c>
@@ -1771,7 +1777,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B59" s="2">
         <v>7</v>
       </c>
@@ -1782,7 +1788,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B60" s="2">
         <v>8</v>
       </c>
@@ -1793,12 +1799,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B65" s="4" t="s">
         <v>22</v>
       </c>
@@ -1812,7 +1818,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B66" s="2">
         <v>1</v>
       </c>
@@ -1826,7 +1832,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B67" s="2">
         <v>2</v>
       </c>
@@ -1840,7 +1846,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B68" s="2">
         <v>3</v>
       </c>
@@ -1854,7 +1860,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B69" s="2">
         <v>4</v>
       </c>
@@ -1868,27 +1874,27 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D70" s="8"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D73"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D74"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D75"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D76"/>
     </row>
-    <row r="77" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
         <v>12</v>
       </c>
@@ -1896,7 +1902,7 @@
       <c r="C78"/>
       <c r="D78"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B79" s="5" t="s">
         <v>3</v>
       </c>
@@ -1907,7 +1913,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B80" s="3" t="s">
         <v>0</v>
       </c>
@@ -1918,7 +1924,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
         <v>4</v>
       </c>
@@ -1926,7 +1932,7 @@
       <c r="C81"/>
       <c r="D81"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B82" s="5" t="s">
         <v>3</v>
       </c>
@@ -1935,7 +1941,7 @@
       </c>
       <c r="D82"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B83" s="3" t="s">
         <v>0</v>
       </c>
@@ -1943,7 +1949,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B84" s="3" t="s">
         <v>0</v>
       </c>
@@ -1951,12 +1957,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B87" s="4" t="s">
         <v>3</v>
       </c>
@@ -1967,7 +1973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B88" s="3" t="s">
         <v>0</v>
       </c>
@@ -1978,7 +1984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B89" s="3" t="s">
         <v>0</v>
       </c>
@@ -1989,7 +1995,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B90" s="3" t="s">
         <v>0</v>
       </c>
@@ -2007,22 +2013,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="32" customWidth="1"/>
-    <col min="3" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="35.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.125" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="36" t="s">
         <v>108</v>
       </c>
@@ -2035,26 +2043,29 @@
       <c r="D2" s="32" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E2" s="37" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B6" s="28" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B7" s="3" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B7" s="43" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B8" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B9" s="28" t="s">
         <v>105</v>
       </c>
@@ -2074,8 +2085,8 @@
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B10" s="3" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B10" s="43" t="s">
         <v>40</v>
       </c>
       <c r="C10" s="34" t="str">
@@ -2099,8 +2110,8 @@
         <v>@Autowired private CategoriesMapper categoriesMapper;</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B11" s="3" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B11" s="43" t="s">
         <v>103</v>
       </c>
       <c r="C11" s="34" t="str">
@@ -2124,8 +2135,8 @@
         <v>@Autowired private DealersMapper dealersMapper;</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B12" s="3" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B12" s="43" t="s">
         <v>79</v>
       </c>
       <c r="C12" s="34" t="str">
@@ -2149,8 +2160,8 @@
         <v>@Autowired private DealersDetailProductsMapper dealersDetailProductsMapper;</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B13" s="3" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B13" s="43" t="s">
         <v>66</v>
       </c>
       <c r="C13" s="34" t="str">
@@ -2174,8 +2185,8 @@
         <v>@Autowired private DealersDetailProductsCategoriesMapper dealersDetailProductsCategoriesMapper;</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B14" s="3" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B14" s="43" t="s">
         <v>64</v>
       </c>
       <c r="C14" s="34" t="str">
@@ -2199,8 +2210,8 @@
         <v>@Autowired private DealersDetailProductsImgsMapper dealersDetailProductsImgsMapper;</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B15" s="3" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B15" s="43" t="s">
         <v>53</v>
       </c>
       <c r="C15" s="34" t="str">
@@ -2224,8 +2235,8 @@
         <v>@Autowired private DealersDetailProductsSaledateMapper dealersDetailProductsSaledateMapper;</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B16" s="3" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B16" s="43" t="s">
         <v>23</v>
       </c>
       <c r="C16" s="34" t="str">
@@ -2249,8 +2260,8 @@
         <v>@Autowired private EventDatesMapper eventDatesMapper;</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B17" s="3" t="s">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B17" s="43" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="34" t="str">
@@ -2274,8 +2285,8 @@
         <v>@Autowired private UsrMapper usrMapper;</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B18" s="3" t="s">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B18" s="43" t="s">
         <v>4</v>
       </c>
       <c r="C18" s="34" t="str">
@@ -2299,8 +2310,8 @@
         <v>@Autowired private UsrDetailFavProductsMapper usrDetailFavProductsMapper;</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B19" s="3" t="s">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B19" s="43" t="s">
         <v>104</v>
       </c>
       <c r="C19" s="34" t="str">
@@ -2312,20 +2323,74 @@
         <v>UsrRoleMapper</v>
       </c>
       <c r="E19" s="34" t="str">
-        <f t="shared" si="2"/>
+        <f>SUBSTITUTE($C$2,"XXXMAPPER",$D19)</f>
         <v>&lt;bean class="org.mybatis.spring.mapper.MapperFactoryBean"&gt;&lt;property name="mapperInterface" value="com.jp.wonfes.cmmn.dao.mapper.UsrRoleMapper"&gt;&lt;/property&gt;&lt;property name="sqlSessionFactory" ref="sqlSessionFactory"&gt;&lt;/property&gt;&lt;/bean&gt;</v>
       </c>
       <c r="F19" s="35" t="str">
-        <f t="shared" si="3"/>
+        <f>LOWER((LEFT(D19,1)))&amp;RIGHT(D19,LEN(D19)-1)</f>
         <v>usrRoleMapper</v>
       </c>
       <c r="G19" s="34" t="str">
-        <f t="shared" si="4"/>
+        <f>SUBSTITUTE(SUBSTITUTE($D$2,"CLASS",$D19),"HENSU",$F19)</f>
         <v>@Autowired private UsrRoleMapper usrRoleMapper;</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B21" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="D21" s="38"/>
+      <c r="E21" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="F21" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="G21" s="40" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B22" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="C22" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="D22" s="38"/>
+      <c r="E22" s="41" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE($E$2,"BEANID",F22),"MAPPERINTERFACE",$B22&amp;"."&amp;$C22)</f>
+        <v>&lt;bean id="dealerSearchMapper" class="org.mybatis.spring.mapper.MapperFactoryBean"&gt;&lt;property name="mapperInterface" value="com.jp.wonfes.dealer.dao.mapper.DealerSearchMapper"&gt;&lt;/property&gt;&lt;property name="sqlSessionFactory" ref="sqlSessionFactory"&gt;&lt;/property&gt;&lt;/bean&gt;</v>
+      </c>
+      <c r="F22" s="42" t="str">
+        <f>LOWER((LEFT(C22,1)))&amp;RIGHT(C22,LEN(C22)-1)</f>
+        <v>dealerSearchMapper</v>
+      </c>
+      <c r="G22" s="41" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE($D$2,"CLASS",$C22),"HENSU",$F22)</f>
+        <v>@Autowired private DealerSearchMapper dealerSearchMapper;</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/02.製造/DB作業.xlsx
+++ b/02.製造/DB作業.xlsx
@@ -1,21 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\tool\webapl\WonFesSys\WFS_Design\02.製造\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8E9B27-FC4B-4115-A9DE-75FF734B7372}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="28035" windowHeight="11670"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="28040" windowHeight="11670" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="データ作成" sheetId="1" r:id="rId1"/>
     <sheet name="ｘｍｌ設定" sheetId="2" r:id="rId2"/>
     <sheet name="dao" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -23,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="123">
   <si>
     <t xml:space="preserve">iwatakhr  </t>
   </si>
@@ -460,11 +467,36 @@
     <t>&lt;bean id="BEANID" class="org.mybatis.spring.mapper.MapperFactoryBean"&gt;&lt;property name="mapperInterface" value="MAPPERINTERFACE"&gt;&lt;/property&gt;&lt;property name="sqlSessionFactory" ref="sqlSessionFactory"&gt;&lt;/property&gt;&lt;/bean&gt;</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>独自DAO</t>
+    <rPh sb="0" eb="2">
+      <t>ドクジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自動生成DAO</t>
+    <rPh sb="0" eb="2">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>com.jp.wonfes.account.dao.mapper</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UserSearchMapper</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
@@ -866,7 +898,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -908,7 +940,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -941,9 +973,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -976,6 +1025,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1151,31 +1217,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:I90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="14.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.453125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.453125" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" ht="26" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
@@ -1201,7 +1267,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <v>1</v>
       </c>
@@ -1225,7 +1291,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>52</v>
       </c>
@@ -1252,7 +1318,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>52</v>
       </c>
@@ -1281,12 +1347,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
         <v>2</v>
       </c>
@@ -1306,7 +1372,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" s="2">
         <v>1</v>
       </c>
@@ -1326,7 +1392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" s="2">
         <v>1</v>
       </c>
@@ -1346,7 +1412,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" s="2">
         <v>3</v>
       </c>
@@ -1366,7 +1432,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" s="2">
         <v>3</v>
       </c>
@@ -1386,12 +1452,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16" s="25" t="s">
         <v>2</v>
       </c>
@@ -1402,7 +1468,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B17" s="22">
         <v>1</v>
       </c>
@@ -1413,7 +1479,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B18" s="22">
         <v>1</v>
       </c>
@@ -1424,7 +1490,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B19" s="22">
         <v>3</v>
       </c>
@@ -1435,7 +1501,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B20" s="20">
         <v>3</v>
       </c>
@@ -1446,22 +1512,22 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
       <c r="D21" s="16"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
       <c r="D22" s="16"/>
     </row>
-    <row r="23" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B24" s="5" t="s">
         <v>2</v>
       </c>
@@ -1472,7 +1538,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B25" s="13">
         <v>1</v>
       </c>
@@ -1483,7 +1549,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B26" s="13">
         <v>1</v>
       </c>
@@ -1494,7 +1560,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" s="13">
         <v>1</v>
       </c>
@@ -1505,7 +1571,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B28" s="13">
         <v>1</v>
       </c>
@@ -1516,7 +1582,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B29" s="13">
         <v>1</v>
       </c>
@@ -1527,7 +1593,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B30" s="13">
         <v>1</v>
       </c>
@@ -1538,7 +1604,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B31" s="13">
         <v>3</v>
       </c>
@@ -1549,7 +1615,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B32" s="13">
         <v>3</v>
       </c>
@@ -1560,7 +1626,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B33" s="13">
         <v>3</v>
       </c>
@@ -1571,12 +1637,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>52</v>
       </c>
@@ -1590,7 +1656,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B37" s="13">
         <v>1</v>
       </c>
@@ -1604,7 +1670,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B38" s="13">
         <v>1</v>
       </c>
@@ -1616,7 +1682,7 @@
       </c>
       <c r="E38" s="15"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B39" s="13">
         <v>1</v>
       </c>
@@ -1628,7 +1694,7 @@
       </c>
       <c r="E39" s="15"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B40" s="13">
         <v>1</v>
       </c>
@@ -1640,7 +1706,7 @@
       </c>
       <c r="E40" s="15"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B41" s="13">
         <v>1</v>
       </c>
@@ -1654,7 +1720,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B42" s="13">
         <v>3</v>
       </c>
@@ -1668,7 +1734,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B43" s="13">
         <v>3</v>
       </c>
@@ -1680,7 +1746,7 @@
       </c>
       <c r="E43" s="6"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B44" s="13">
         <v>3</v>
       </c>
@@ -1694,13 +1760,13 @@
         <v>41</v>
       </c>
     </row>
-    <row r="49" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B52" s="4" t="s">
         <v>39</v>
       </c>
@@ -1711,7 +1777,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B53" s="2">
         <v>1</v>
       </c>
@@ -1722,7 +1788,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B54" s="2">
         <v>2</v>
       </c>
@@ -1733,7 +1799,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B55" s="2">
         <v>3</v>
       </c>
@@ -1744,7 +1810,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B56" s="2">
         <v>4</v>
       </c>
@@ -1755,7 +1821,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B57" s="2">
         <v>5</v>
       </c>
@@ -1766,7 +1832,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B58" s="2">
         <v>6</v>
       </c>
@@ -1777,7 +1843,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B59" s="2">
         <v>7</v>
       </c>
@@ -1788,7 +1854,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B60" s="2">
         <v>8</v>
       </c>
@@ -1799,12 +1865,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B65" s="4" t="s">
         <v>22</v>
       </c>
@@ -1818,7 +1884,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B66" s="2">
         <v>1</v>
       </c>
@@ -1832,7 +1898,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B67" s="2">
         <v>2</v>
       </c>
@@ -1846,7 +1912,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B68" s="2">
         <v>3</v>
       </c>
@@ -1860,7 +1926,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B69" s="2">
         <v>4</v>
       </c>
@@ -1874,27 +1940,27 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D70" s="8"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D73"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D74"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D75"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D76"/>
     </row>
-    <row r="77" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>12</v>
       </c>
@@ -1902,7 +1968,7 @@
       <c r="C78"/>
       <c r="D78"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B79" s="5" t="s">
         <v>3</v>
       </c>
@@ -1913,7 +1979,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B80" s="3" t="s">
         <v>0</v>
       </c>
@@ -1924,7 +1990,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>4</v>
       </c>
@@ -1932,7 +1998,7 @@
       <c r="C81"/>
       <c r="D81"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B82" s="5" t="s">
         <v>3</v>
       </c>
@@ -1941,7 +2007,7 @@
       </c>
       <c r="D82"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B83" s="3" t="s">
         <v>0</v>
       </c>
@@ -1949,7 +2015,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B84" s="3" t="s">
         <v>0</v>
       </c>
@@ -1957,12 +2023,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B87" s="4" t="s">
         <v>3</v>
       </c>
@@ -1973,7 +2039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B88" s="3" t="s">
         <v>0</v>
       </c>
@@ -1984,7 +2050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B89" s="3" t="s">
         <v>0</v>
       </c>
@@ -1995,7 +2061,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B90" s="3" t="s">
         <v>0</v>
       </c>
@@ -2013,24 +2079,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="32" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="35.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.125" customWidth="1"/>
+    <col min="4" max="4" width="35.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.08984375" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="2" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="36" t="s">
         <v>108</v>
       </c>
@@ -2047,25 +2113,30 @@
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B6" s="28" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B7" s="43" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B8" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B9" s="28" t="s">
         <v>105</v>
       </c>
@@ -2085,7 +2156,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B10" s="43" t="s">
         <v>40</v>
       </c>
@@ -2110,7 +2181,7 @@
         <v>@Autowired private CategoriesMapper categoriesMapper;</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B11" s="43" t="s">
         <v>103</v>
       </c>
@@ -2123,19 +2194,19 @@
         <v>DealersMapper</v>
       </c>
       <c r="E11" s="34" t="str">
-        <f t="shared" ref="E11:E19" si="2">SUBSTITUTE($C$2,"XXXMAPPER",$D11)</f>
+        <f t="shared" ref="E11:E18" si="2">SUBSTITUTE($C$2,"XXXMAPPER",$D11)</f>
         <v>&lt;bean class="org.mybatis.spring.mapper.MapperFactoryBean"&gt;&lt;property name="mapperInterface" value="com.jp.wonfes.cmmn.dao.mapper.DealersMapper"&gt;&lt;/property&gt;&lt;property name="sqlSessionFactory" ref="sqlSessionFactory"&gt;&lt;/property&gt;&lt;/bean&gt;</v>
       </c>
       <c r="F11" s="35" t="str">
-        <f t="shared" ref="F11:F19" si="3">LOWER((LEFT(D11,1)))&amp;RIGHT(D11,LEN(D11)-1)</f>
+        <f t="shared" ref="F11:F18" si="3">LOWER((LEFT(D11,1)))&amp;RIGHT(D11,LEN(D11)-1)</f>
         <v>dealersMapper</v>
       </c>
       <c r="G11" s="34" t="str">
-        <f t="shared" ref="G11:G19" si="4">SUBSTITUTE(SUBSTITUTE($D$2,"CLASS",$D11),"HENSU",$F11)</f>
+        <f t="shared" ref="G11:G18" si="4">SUBSTITUTE(SUBSTITUTE($D$2,"CLASS",$D11),"HENSU",$F11)</f>
         <v>@Autowired private DealersMapper dealersMapper;</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B12" s="43" t="s">
         <v>79</v>
       </c>
@@ -2160,7 +2231,7 @@
         <v>@Autowired private DealersDetailProductsMapper dealersDetailProductsMapper;</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B13" s="43" t="s">
         <v>66</v>
       </c>
@@ -2185,7 +2256,7 @@
         <v>@Autowired private DealersDetailProductsCategoriesMapper dealersDetailProductsCategoriesMapper;</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B14" s="43" t="s">
         <v>64</v>
       </c>
@@ -2210,7 +2281,7 @@
         <v>@Autowired private DealersDetailProductsImgsMapper dealersDetailProductsImgsMapper;</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B15" s="43" t="s">
         <v>53</v>
       </c>
@@ -2235,7 +2306,7 @@
         <v>@Autowired private DealersDetailProductsSaledateMapper dealersDetailProductsSaledateMapper;</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B16" s="43" t="s">
         <v>23</v>
       </c>
@@ -2260,7 +2331,7 @@
         <v>@Autowired private EventDatesMapper eventDatesMapper;</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B17" s="43" t="s">
         <v>12</v>
       </c>
@@ -2285,7 +2356,7 @@
         <v>@Autowired private UsrMapper usrMapper;</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B18" s="43" t="s">
         <v>4</v>
       </c>
@@ -2310,7 +2381,7 @@
         <v>@Autowired private UsrDetailFavProductsMapper usrDetailFavProductsMapper;</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B19" s="43" t="s">
         <v>104</v>
       </c>
@@ -2335,43 +2406,69 @@
         <v>@Autowired private UsrRoleMapper usrRoleMapper;</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B21" s="28" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B22" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="C21" s="28" t="s">
+      <c r="C22" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="D21" s="38"/>
-      <c r="E21" s="39" t="s">
+      <c r="D22" s="38"/>
+      <c r="E22" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="F21" s="40" t="s">
+      <c r="F22" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="G21" s="40" t="s">
+      <c r="G22" s="40" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B22" s="43" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B23" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="C22" s="43" t="s">
+      <c r="C23" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="D22" s="38"/>
-      <c r="E22" s="41" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE($E$2,"BEANID",F22),"MAPPERINTERFACE",$B22&amp;"."&amp;$C22)</f>
+      <c r="D23" s="38"/>
+      <c r="E23" s="41" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE($E$2,"BEANID",F23),"MAPPERINTERFACE",$B23&amp;"."&amp;$C23)</f>
         <v>&lt;bean id="dealerSearchMapper" class="org.mybatis.spring.mapper.MapperFactoryBean"&gt;&lt;property name="mapperInterface" value="com.jp.wonfes.dealer.dao.mapper.DealerSearchMapper"&gt;&lt;/property&gt;&lt;property name="sqlSessionFactory" ref="sqlSessionFactory"&gt;&lt;/property&gt;&lt;/bean&gt;</v>
       </c>
-      <c r="F22" s="42" t="str">
-        <f>LOWER((LEFT(C22,1)))&amp;RIGHT(C22,LEN(C22)-1)</f>
+      <c r="F23" s="42" t="str">
+        <f>LOWER((LEFT(C23,1)))&amp;RIGHT(C23,LEN(C23)-1)</f>
         <v>dealerSearchMapper</v>
       </c>
-      <c r="G22" s="41" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE($D$2,"CLASS",$C22),"HENSU",$F22)</f>
+      <c r="G23" s="41" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE($D$2,"CLASS",$C23),"HENSU",$F23)</f>
         <v>@Autowired private DealerSearchMapper dealerSearchMapper;</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B24" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="D24" s="38"/>
+      <c r="E24" s="41" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE($E$2,"BEANID",F24),"MAPPERINTERFACE",$B24&amp;"."&amp;$C24)</f>
+        <v>&lt;bean id="userSearchMapper" class="org.mybatis.spring.mapper.MapperFactoryBean"&gt;&lt;property name="mapperInterface" value="com.jp.wonfes.account.dao.mapper.UserSearchMapper"&gt;&lt;/property&gt;&lt;property name="sqlSessionFactory" ref="sqlSessionFactory"&gt;&lt;/property&gt;&lt;/bean&gt;</v>
+      </c>
+      <c r="F24" s="42" t="str">
+        <f>LOWER((LEFT(C24,1)))&amp;RIGHT(C24,LEN(C24)-1)</f>
+        <v>userSearchMapper</v>
+      </c>
+      <c r="G24" s="41" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE($D$2,"CLASS",$C24),"HENSU",$F24)</f>
+        <v>@Autowired private UserSearchMapper userSearchMapper;</v>
       </c>
     </row>
   </sheetData>
@@ -2381,14 +2478,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/02.製造/DB作業.xlsx
+++ b/02.製造/DB作業.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\tool\webapl\WonFesSys\WFS_Design\02.製造\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8E9B27-FC4B-4115-A9DE-75FF734B7372}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A37BEE4C-E87A-4087-876E-7A4DFAAE3A38}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="30" windowWidth="28040" windowHeight="11670" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="124">
   <si>
     <t xml:space="preserve">iwatakhr  </t>
   </si>
@@ -491,6 +491,9 @@
   <si>
     <t>UserSearchMapper</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AccountInfoSearchMapper</t>
   </si>
 </sst>
 </file>
@@ -2080,10 +2083,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2469,6 +2472,27 @@
       <c r="G24" s="41" t="str">
         <f>SUBSTITUTE(SUBSTITUTE($D$2,"CLASS",$C24),"HENSU",$F24)</f>
         <v>@Autowired private UserSearchMapper userSearchMapper;</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B25" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="C25" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="D25" s="38"/>
+      <c r="E25" s="41" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE($E$2,"BEANID",F25),"MAPPERINTERFACE",$B25&amp;"."&amp;$C25)</f>
+        <v>&lt;bean id="accountInfoSearchMapper" class="org.mybatis.spring.mapper.MapperFactoryBean"&gt;&lt;property name="mapperInterface" value="com.jp.wonfes.account.dao.mapper.AccountInfoSearchMapper"&gt;&lt;/property&gt;&lt;property name="sqlSessionFactory" ref="sqlSessionFactory"&gt;&lt;/property&gt;&lt;/bean&gt;</v>
+      </c>
+      <c r="F25" s="42" t="str">
+        <f>LOWER((LEFT(C25,1)))&amp;RIGHT(C25,LEN(C25)-1)</f>
+        <v>accountInfoSearchMapper</v>
+      </c>
+      <c r="G25" s="41" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE($D$2,"CLASS",$C25),"HENSU",$F25)</f>
+        <v>@Autowired private AccountInfoSearchMapper accountInfoSearchMapper;</v>
       </c>
     </row>
   </sheetData>

--- a/02.製造/DB作業.xlsx
+++ b/02.製造/DB作業.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\tool\webapl\WonFesSys\WFS_Design\02.製造\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A37BEE4C-E87A-4087-876E-7A4DFAAE3A38}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A27D2B-A92B-4A6E-AA46-3409F260AFDA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="30" windowWidth="28040" windowHeight="11670" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="126">
   <si>
     <t xml:space="preserve">iwatakhr  </t>
   </si>
@@ -494,6 +494,14 @@
   </si>
   <si>
     <t>AccountInfoSearchMapper</t>
+  </si>
+  <si>
+    <t>WorkSearchMapper</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>com.jp.wonfes.work.dao.mapper</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -2083,10 +2091,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2493,6 +2501,27 @@
       <c r="G25" s="41" t="str">
         <f>SUBSTITUTE(SUBSTITUTE($D$2,"CLASS",$C25),"HENSU",$F25)</f>
         <v>@Autowired private AccountInfoSearchMapper accountInfoSearchMapper;</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B26" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="C26" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="D26" s="38"/>
+      <c r="E26" s="41" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE($E$2,"BEANID",F26),"MAPPERINTERFACE",$B26&amp;"."&amp;$C26)</f>
+        <v>&lt;bean id="workSearchMapper" class="org.mybatis.spring.mapper.MapperFactoryBean"&gt;&lt;property name="mapperInterface" value="com.jp.wonfes.work.dao.mapper.WorkSearchMapper"&gt;&lt;/property&gt;&lt;property name="sqlSessionFactory" ref="sqlSessionFactory"&gt;&lt;/property&gt;&lt;/bean&gt;</v>
+      </c>
+      <c r="F26" s="42" t="str">
+        <f>LOWER((LEFT(C26,1)))&amp;RIGHT(C26,LEN(C26)-1)</f>
+        <v>workSearchMapper</v>
+      </c>
+      <c r="G26" s="41" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE($D$2,"CLASS",$C26),"HENSU",$F26)</f>
+        <v>@Autowired private WorkSearchMapper workSearchMapper;</v>
       </c>
     </row>
   </sheetData>

--- a/02.製造/DB作業.xlsx
+++ b/02.製造/DB作業.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\tool\webapl\WonFesSys\WFS_Design\02.製造\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A27D2B-A92B-4A6E-AA46-3409F260AFDA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="28040" windowHeight="11670" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="28035" windowHeight="11670" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="データ作成" sheetId="1" r:id="rId1"/>
     <sheet name="ｘｍｌ設定" sheetId="2" r:id="rId2"/>
-    <sheet name="dao" sheetId="3" r:id="rId3"/>
+    <sheet name="dbimpprt" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="146">
   <si>
     <t xml:space="preserve">iwatakhr  </t>
   </si>
@@ -503,11 +497,99 @@
     <t>com.jp.wonfes.work.dao.mapper</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>wfs.usr.csv</t>
+  </si>
+  <si>
+    <t>wfs.usr_detail_fav_products.csv</t>
+  </si>
+  <si>
+    <t>wfs.usr_role.csv</t>
+  </si>
+  <si>
+    <t>wfs.categories.csv</t>
+  </si>
+  <si>
+    <t>wfs.event_dates.csv</t>
+  </si>
+  <si>
+    <t>wfs.dealers.csv</t>
+  </si>
+  <si>
+    <t>wfs.dealers_detail_products.csv</t>
+  </si>
+  <si>
+    <t>wfs.dealers_detail_products_categories.csv</t>
+  </si>
+  <si>
+    <t>wfs.dealers_detail_products_imgs.csv</t>
+  </si>
+  <si>
+    <t>wfs.dealers_detail_products_saledate.csv</t>
+  </si>
+  <si>
+    <t>table</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>csv</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cmd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヘッダーつき、カンマ区切り</t>
+    <rPh sb="10" eb="12">
+      <t>クギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>csvファイルの前提</t>
+    <rPh sb="8" eb="10">
+      <t>ゼンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>\copy TABLE from 'D:/MyEdocument/MyPG/webapl/WonFesSys/WFS_Design/01.設計/data/初回データ/CSV' delimiter ',' csv header;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>注意</t>
+    <rPh sb="0" eb="2">
+      <t>チュウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・psqlで実行すること</t>
+    <rPh sb="6" eb="8">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・全クエリをまとめて実行する</t>
+    <rPh sb="10" eb="12">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※実行をくぎると、なぜかFKエラーになり挿入できない</t>
+    <rPh sb="1" eb="3">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
@@ -810,7 +892,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -885,6 +967,7 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -909,7 +992,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -951,7 +1034,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -984,26 +1067,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1036,23 +1102,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1228,31 +1277,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:I90"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="14.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.453125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.5" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
@@ -1278,7 +1325,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="2">
         <v>1</v>
       </c>
@@ -1302,7 +1349,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>52</v>
       </c>
@@ -1329,7 +1376,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>52</v>
       </c>
@@ -1358,12 +1405,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B10" s="4" t="s">
         <v>2</v>
       </c>
@@ -1383,7 +1430,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B11" s="2">
         <v>1</v>
       </c>
@@ -1403,7 +1450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B12" s="2">
         <v>1</v>
       </c>
@@ -1423,7 +1470,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B13" s="2">
         <v>3</v>
       </c>
@@ -1443,7 +1490,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B14" s="2">
         <v>3</v>
       </c>
@@ -1463,12 +1510,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B16" s="25" t="s">
         <v>2</v>
       </c>
@@ -1479,7 +1526,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B17" s="22">
         <v>1</v>
       </c>
@@ -1490,7 +1537,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B18" s="22">
         <v>1</v>
       </c>
@@ -1501,7 +1548,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B19" s="22">
         <v>3</v>
       </c>
@@ -1512,7 +1559,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B20" s="20">
         <v>3</v>
       </c>
@@ -1523,22 +1570,22 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
       <c r="D21" s="16"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
       <c r="D22" s="16"/>
     </row>
-    <row r="23" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B24" s="5" t="s">
         <v>2</v>
       </c>
@@ -1549,7 +1596,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B25" s="13">
         <v>1</v>
       </c>
@@ -1560,7 +1607,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B26" s="13">
         <v>1</v>
       </c>
@@ -1571,7 +1618,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B27" s="13">
         <v>1</v>
       </c>
@@ -1582,7 +1629,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B28" s="13">
         <v>1</v>
       </c>
@@ -1593,7 +1640,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B29" s="13">
         <v>1</v>
       </c>
@@ -1604,7 +1651,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B30" s="13">
         <v>1</v>
       </c>
@@ -1615,7 +1662,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B31" s="13">
         <v>3</v>
       </c>
@@ -1626,7 +1673,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B32" s="13">
         <v>3</v>
       </c>
@@ -1637,7 +1684,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B33" s="13">
         <v>3</v>
       </c>
@@ -1648,12 +1695,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>52</v>
       </c>
@@ -1667,7 +1714,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B37" s="13">
         <v>1</v>
       </c>
@@ -1681,7 +1728,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B38" s="13">
         <v>1</v>
       </c>
@@ -1693,7 +1740,7 @@
       </c>
       <c r="E38" s="15"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B39" s="13">
         <v>1</v>
       </c>
@@ -1705,7 +1752,7 @@
       </c>
       <c r="E39" s="15"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B40" s="13">
         <v>1</v>
       </c>
@@ -1717,7 +1764,7 @@
       </c>
       <c r="E40" s="15"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B41" s="13">
         <v>1</v>
       </c>
@@ -1731,7 +1778,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B42" s="13">
         <v>3</v>
       </c>
@@ -1745,7 +1792,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B43" s="13">
         <v>3</v>
       </c>
@@ -1757,7 +1804,7 @@
       </c>
       <c r="E43" s="6"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B44" s="13">
         <v>3</v>
       </c>
@@ -1771,13 +1818,13 @@
         <v>41</v>
       </c>
     </row>
-    <row r="49" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B52" s="4" t="s">
         <v>39</v>
       </c>
@@ -1788,7 +1835,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B53" s="2">
         <v>1</v>
       </c>
@@ -1799,7 +1846,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B54" s="2">
         <v>2</v>
       </c>
@@ -1810,7 +1857,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B55" s="2">
         <v>3</v>
       </c>
@@ -1821,7 +1868,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B56" s="2">
         <v>4</v>
       </c>
@@ -1832,7 +1879,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B57" s="2">
         <v>5</v>
       </c>
@@ -1843,7 +1890,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B58" s="2">
         <v>6</v>
       </c>
@@ -1854,7 +1901,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B59" s="2">
         <v>7</v>
       </c>
@@ -1865,7 +1912,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B60" s="2">
         <v>8</v>
       </c>
@@ -1876,12 +1923,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B65" s="4" t="s">
         <v>22</v>
       </c>
@@ -1895,7 +1942,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B66" s="2">
         <v>1</v>
       </c>
@@ -1909,7 +1956,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B67" s="2">
         <v>2</v>
       </c>
@@ -1923,7 +1970,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B68" s="2">
         <v>3</v>
       </c>
@@ -1937,7 +1984,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B69" s="2">
         <v>4</v>
       </c>
@@ -1951,27 +1998,27 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D70" s="8"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D73"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D74"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D75"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D76"/>
     </row>
-    <row r="77" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
         <v>12</v>
       </c>
@@ -1979,7 +2026,7 @@
       <c r="C78"/>
       <c r="D78"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B79" s="5" t="s">
         <v>3</v>
       </c>
@@ -1990,7 +2037,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B80" s="3" t="s">
         <v>0</v>
       </c>
@@ -2001,7 +2048,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
         <v>4</v>
       </c>
@@ -2009,7 +2056,7 @@
       <c r="C81"/>
       <c r="D81"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B82" s="5" t="s">
         <v>3</v>
       </c>
@@ -2018,7 +2065,7 @@
       </c>
       <c r="D82"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B83" s="3" t="s">
         <v>0</v>
       </c>
@@ -2026,7 +2073,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B84" s="3" t="s">
         <v>0</v>
       </c>
@@ -2034,12 +2081,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B87" s="4" t="s">
         <v>3</v>
       </c>
@@ -2050,7 +2097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B88" s="3" t="s">
         <v>0</v>
       </c>
@@ -2061,7 +2108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B89" s="3" t="s">
         <v>0</v>
       </c>
@@ -2072,7 +2119,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B90" s="3" t="s">
         <v>0</v>
       </c>
@@ -2090,24 +2137,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="32" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="35.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.08984375" customWidth="1"/>
+    <col min="4" max="4" width="35.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.125" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="36" t="s">
         <v>108</v>
       </c>
@@ -2124,30 +2169,30 @@
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B6" s="28" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B7" s="43" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B8" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B9" s="28" t="s">
         <v>105</v>
       </c>
@@ -2167,7 +2212,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B10" s="43" t="s">
         <v>40</v>
       </c>
@@ -2192,7 +2237,7 @@
         <v>@Autowired private CategoriesMapper categoriesMapper;</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B11" s="43" t="s">
         <v>103</v>
       </c>
@@ -2217,7 +2262,7 @@
         <v>@Autowired private DealersMapper dealersMapper;</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B12" s="43" t="s">
         <v>79</v>
       </c>
@@ -2242,7 +2287,7 @@
         <v>@Autowired private DealersDetailProductsMapper dealersDetailProductsMapper;</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B13" s="43" t="s">
         <v>66</v>
       </c>
@@ -2267,7 +2312,7 @@
         <v>@Autowired private DealersDetailProductsCategoriesMapper dealersDetailProductsCategoriesMapper;</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B14" s="43" t="s">
         <v>64</v>
       </c>
@@ -2292,7 +2337,7 @@
         <v>@Autowired private DealersDetailProductsImgsMapper dealersDetailProductsImgsMapper;</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B15" s="43" t="s">
         <v>53</v>
       </c>
@@ -2317,7 +2362,7 @@
         <v>@Autowired private DealersDetailProductsSaledateMapper dealersDetailProductsSaledateMapper;</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B16" s="43" t="s">
         <v>23</v>
       </c>
@@ -2342,7 +2387,7 @@
         <v>@Autowired private EventDatesMapper eventDatesMapper;</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B17" s="43" t="s">
         <v>12</v>
       </c>
@@ -2367,7 +2412,7 @@
         <v>@Autowired private UsrMapper usrMapper;</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B18" s="43" t="s">
         <v>4</v>
       </c>
@@ -2392,7 +2437,7 @@
         <v>@Autowired private UsrDetailFavProductsMapper usrDetailFavProductsMapper;</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B19" s="43" t="s">
         <v>104</v>
       </c>
@@ -2417,12 +2462,12 @@
         <v>@Autowired private UsrRoleMapper usrRoleMapper;</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B22" s="28" t="s">
         <v>116</v>
       </c>
@@ -2440,7 +2485,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B23" s="43" t="s">
         <v>117</v>
       </c>
@@ -2461,7 +2506,7 @@
         <v>@Autowired private DealerSearchMapper dealerSearchMapper;</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B24" s="43" t="s">
         <v>121</v>
       </c>
@@ -2482,7 +2527,7 @@
         <v>@Autowired private UserSearchMapper userSearchMapper;</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B25" s="43" t="s">
         <v>121</v>
       </c>
@@ -2503,7 +2548,7 @@
         <v>@Autowired private AccountInfoSearchMapper accountInfoSearchMapper;</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B26" s="43" t="s">
         <v>125</v>
       </c>
@@ -2531,16 +2576,192 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D18"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="27.875" customWidth="1"/>
+    <col min="3" max="3" width="40.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B9" s="34" t="str">
+        <f>SUBSTITUTE(C9,".csv","")</f>
+        <v>wfs.usr</v>
+      </c>
+      <c r="C9" t="s">
+        <v>126</v>
+      </c>
+      <c r="D9" s="44" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE($C$3,"CSV",$C9),"TABLE",$B9)</f>
+        <v>\copy wfs.usr from 'D:/MyEdocument/MyPG/webapl/WonFesSys/WFS_Design/01.設計/data/初回データ/wfs.usr.csv' delimiter ',' csv header;</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B10" s="34" t="str">
+        <f t="shared" ref="B10:B18" si="0">SUBSTITUTE(C10,".csv","")</f>
+        <v>wfs.usr_detail_fav_products</v>
+      </c>
+      <c r="C10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D10" s="44" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE($C$3,"CSV",$C10),"TABLE",$B10)</f>
+        <v>\copy wfs.usr_detail_fav_products from 'D:/MyEdocument/MyPG/webapl/WonFesSys/WFS_Design/01.設計/data/初回データ/wfs.usr_detail_fav_products.csv' delimiter ',' csv header;</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B11" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v>wfs.usr_role</v>
+      </c>
+      <c r="C11" t="s">
+        <v>128</v>
+      </c>
+      <c r="D11" s="44" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE($C$3,"CSV",$C11),"TABLE",$B11)</f>
+        <v>\copy wfs.usr_role from 'D:/MyEdocument/MyPG/webapl/WonFesSys/WFS_Design/01.設計/data/初回データ/wfs.usr_role.csv' delimiter ',' csv header;</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B12" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v>wfs.categories</v>
+      </c>
+      <c r="C12" t="s">
+        <v>129</v>
+      </c>
+      <c r="D12" s="44" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE($C$3,"CSV",$C12),"TABLE",$B12)</f>
+        <v>\copy wfs.categories from 'D:/MyEdocument/MyPG/webapl/WonFesSys/WFS_Design/01.設計/data/初回データ/wfs.categories.csv' delimiter ',' csv header;</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B13" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v>wfs.event_dates</v>
+      </c>
+      <c r="C13" t="s">
+        <v>130</v>
+      </c>
+      <c r="D13" s="44" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE($C$3,"CSV",$C13),"TABLE",$B13)</f>
+        <v>\copy wfs.event_dates from 'D:/MyEdocument/MyPG/webapl/WonFesSys/WFS_Design/01.設計/data/初回データ/wfs.event_dates.csv' delimiter ',' csv header;</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B14" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v>wfs.dealers</v>
+      </c>
+      <c r="C14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D14" s="44" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE($C$3,"CSV",$C14),"TABLE",$B14)</f>
+        <v>\copy wfs.dealers from 'D:/MyEdocument/MyPG/webapl/WonFesSys/WFS_Design/01.設計/data/初回データ/wfs.dealers.csv' delimiter ',' csv header;</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B15" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v>wfs.dealers_detail_products</v>
+      </c>
+      <c r="C15" t="s">
+        <v>132</v>
+      </c>
+      <c r="D15" s="44" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE($C$3,"CSV",$C15),"TABLE",$B15)</f>
+        <v>\copy wfs.dealers_detail_products from 'D:/MyEdocument/MyPG/webapl/WonFesSys/WFS_Design/01.設計/data/初回データ/wfs.dealers_detail_products.csv' delimiter ',' csv header;</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B16" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v>wfs.dealers_detail_products_categories</v>
+      </c>
+      <c r="C16" t="s">
+        <v>133</v>
+      </c>
+      <c r="D16" s="44" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE($C$3,"CSV",$C16),"TABLE",$B16)</f>
+        <v>\copy wfs.dealers_detail_products_categories from 'D:/MyEdocument/MyPG/webapl/WonFesSys/WFS_Design/01.設計/data/初回データ/wfs.dealers_detail_products_categories.csv' delimiter ',' csv header;</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B17" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v>wfs.dealers_detail_products_imgs</v>
+      </c>
+      <c r="C17" t="s">
+        <v>134</v>
+      </c>
+      <c r="D17" s="44" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE($C$3,"CSV",$C17),"TABLE",$B17)</f>
+        <v>\copy wfs.dealers_detail_products_imgs from 'D:/MyEdocument/MyPG/webapl/WonFesSys/WFS_Design/01.設計/data/初回データ/wfs.dealers_detail_products_imgs.csv' delimiter ',' csv header;</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B18" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v>wfs.dealers_detail_products_saledate</v>
+      </c>
+      <c r="C18" t="s">
+        <v>135</v>
+      </c>
+      <c r="D18" s="44" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE($C$3,"CSV",$C18),"TABLE",$B18)</f>
+        <v>\copy wfs.dealers_detail_products_saledate from 'D:/MyEdocument/MyPG/webapl/WonFesSys/WFS_Design/01.設計/data/初回データ/wfs.dealers_detail_products_saledate.csv' delimiter ',' csv header;</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/02.製造/DB作業.xlsx
+++ b/02.製造/DB作業.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\tool\webapl\WonFesSys\WFS_Design\02.製造\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92438A3E-EBB4-48B1-B6D2-F659D4F2ECB8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="28035" windowHeight="11670" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="28040" windowHeight="11670" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="データ作成" sheetId="1" r:id="rId1"/>
     <sheet name="ｘｍｌ設定" sheetId="2" r:id="rId2"/>
     <sheet name="dbimpprt" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -24,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="148">
   <si>
     <t xml:space="preserve">iwatakhr  </t>
   </si>
@@ -554,10 +560,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>\copy TABLE from 'D:/MyEdocument/MyPG/webapl/WonFesSys/WFS_Design/01.設計/data/初回データ/CSV' delimiter ',' csv header;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>注意</t>
     <rPh sb="0" eb="2">
       <t>チュウイ</t>
@@ -585,11 +587,25 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>C:\work\tool\webapl\WonFesSys\WFS_Design\01.設計\data\初回データ</t>
+  </si>
+  <si>
+    <t>格納パス</t>
+    <rPh sb="0" eb="2">
+      <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>\copy TABLE from 'PATH\CSV' delimiter ',' csv header;</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
@@ -992,7 +1008,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1034,7 +1050,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1067,9 +1083,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1102,6 +1135,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1277,29 +1327,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:I90"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="14.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.453125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.453125" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" ht="26" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
@@ -1325,7 +1375,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <v>1</v>
       </c>
@@ -1349,7 +1399,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>52</v>
       </c>
@@ -1376,7 +1426,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>52</v>
       </c>
@@ -1405,12 +1455,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
         <v>2</v>
       </c>
@@ -1430,7 +1480,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" s="2">
         <v>1</v>
       </c>
@@ -1450,7 +1500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" s="2">
         <v>1</v>
       </c>
@@ -1470,7 +1520,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" s="2">
         <v>3</v>
       </c>
@@ -1490,7 +1540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" s="2">
         <v>3</v>
       </c>
@@ -1510,12 +1560,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16" s="25" t="s">
         <v>2</v>
       </c>
@@ -1526,7 +1576,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B17" s="22">
         <v>1</v>
       </c>
@@ -1537,7 +1587,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B18" s="22">
         <v>1</v>
       </c>
@@ -1548,7 +1598,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B19" s="22">
         <v>3</v>
       </c>
@@ -1559,7 +1609,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B20" s="20">
         <v>3</v>
       </c>
@@ -1570,22 +1620,22 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
       <c r="D21" s="16"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
       <c r="D22" s="16"/>
     </row>
-    <row r="23" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B24" s="5" t="s">
         <v>2</v>
       </c>
@@ -1596,7 +1646,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B25" s="13">
         <v>1</v>
       </c>
@@ -1607,7 +1657,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B26" s="13">
         <v>1</v>
       </c>
@@ -1618,7 +1668,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" s="13">
         <v>1</v>
       </c>
@@ -1629,7 +1679,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B28" s="13">
         <v>1</v>
       </c>
@@ -1640,7 +1690,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B29" s="13">
         <v>1</v>
       </c>
@@ -1651,7 +1701,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B30" s="13">
         <v>1</v>
       </c>
@@ -1662,7 +1712,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B31" s="13">
         <v>3</v>
       </c>
@@ -1673,7 +1723,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B32" s="13">
         <v>3</v>
       </c>
@@ -1684,7 +1734,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B33" s="13">
         <v>3</v>
       </c>
@@ -1695,12 +1745,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>52</v>
       </c>
@@ -1714,7 +1764,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B37" s="13">
         <v>1</v>
       </c>
@@ -1728,7 +1778,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B38" s="13">
         <v>1</v>
       </c>
@@ -1740,7 +1790,7 @@
       </c>
       <c r="E38" s="15"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B39" s="13">
         <v>1</v>
       </c>
@@ -1752,7 +1802,7 @@
       </c>
       <c r="E39" s="15"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B40" s="13">
         <v>1</v>
       </c>
@@ -1764,7 +1814,7 @@
       </c>
       <c r="E40" s="15"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B41" s="13">
         <v>1</v>
       </c>
@@ -1778,7 +1828,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B42" s="13">
         <v>3</v>
       </c>
@@ -1792,7 +1842,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B43" s="13">
         <v>3</v>
       </c>
@@ -1804,7 +1854,7 @@
       </c>
       <c r="E43" s="6"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B44" s="13">
         <v>3</v>
       </c>
@@ -1818,13 +1868,13 @@
         <v>41</v>
       </c>
     </row>
-    <row r="49" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B52" s="4" t="s">
         <v>39</v>
       </c>
@@ -1835,7 +1885,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B53" s="2">
         <v>1</v>
       </c>
@@ -1846,7 +1896,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B54" s="2">
         <v>2</v>
       </c>
@@ -1857,7 +1907,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B55" s="2">
         <v>3</v>
       </c>
@@ -1868,7 +1918,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B56" s="2">
         <v>4</v>
       </c>
@@ -1879,7 +1929,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B57" s="2">
         <v>5</v>
       </c>
@@ -1890,7 +1940,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B58" s="2">
         <v>6</v>
       </c>
@@ -1901,7 +1951,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B59" s="2">
         <v>7</v>
       </c>
@@ -1912,7 +1962,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B60" s="2">
         <v>8</v>
       </c>
@@ -1923,12 +1973,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B65" s="4" t="s">
         <v>22</v>
       </c>
@@ -1942,7 +1992,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B66" s="2">
         <v>1</v>
       </c>
@@ -1956,7 +2006,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B67" s="2">
         <v>2</v>
       </c>
@@ -1970,7 +2020,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B68" s="2">
         <v>3</v>
       </c>
@@ -1984,7 +2034,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B69" s="2">
         <v>4</v>
       </c>
@@ -1998,27 +2048,27 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D70" s="8"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D73"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D74"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D75"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D76"/>
     </row>
-    <row r="77" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>12</v>
       </c>
@@ -2026,7 +2076,7 @@
       <c r="C78"/>
       <c r="D78"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B79" s="5" t="s">
         <v>3</v>
       </c>
@@ -2037,7 +2087,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B80" s="3" t="s">
         <v>0</v>
       </c>
@@ -2048,7 +2098,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>4</v>
       </c>
@@ -2056,7 +2106,7 @@
       <c r="C81"/>
       <c r="D81"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B82" s="5" t="s">
         <v>3</v>
       </c>
@@ -2065,7 +2115,7 @@
       </c>
       <c r="D82"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B83" s="3" t="s">
         <v>0</v>
       </c>
@@ -2073,7 +2123,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B84" s="3" t="s">
         <v>0</v>
       </c>
@@ -2081,12 +2131,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B87" s="4" t="s">
         <v>3</v>
       </c>
@@ -2097,7 +2147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B88" s="3" t="s">
         <v>0</v>
       </c>
@@ -2108,7 +2158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B89" s="3" t="s">
         <v>0</v>
       </c>
@@ -2119,7 +2169,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B90" s="3" t="s">
         <v>0</v>
       </c>
@@ -2137,22 +2187,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="32" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="35.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.125" customWidth="1"/>
+    <col min="4" max="4" width="35.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.08984375" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="2" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="36" t="s">
         <v>108</v>
       </c>
@@ -2169,30 +2219,30 @@
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B6" s="28" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B7" s="43" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B8" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B9" s="28" t="s">
         <v>105</v>
       </c>
@@ -2212,7 +2262,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B10" s="43" t="s">
         <v>40</v>
       </c>
@@ -2237,7 +2287,7 @@
         <v>@Autowired private CategoriesMapper categoriesMapper;</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B11" s="43" t="s">
         <v>103</v>
       </c>
@@ -2262,7 +2312,7 @@
         <v>@Autowired private DealersMapper dealersMapper;</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B12" s="43" t="s">
         <v>79</v>
       </c>
@@ -2287,7 +2337,7 @@
         <v>@Autowired private DealersDetailProductsMapper dealersDetailProductsMapper;</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B13" s="43" t="s">
         <v>66</v>
       </c>
@@ -2312,7 +2362,7 @@
         <v>@Autowired private DealersDetailProductsCategoriesMapper dealersDetailProductsCategoriesMapper;</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B14" s="43" t="s">
         <v>64</v>
       </c>
@@ -2337,7 +2387,7 @@
         <v>@Autowired private DealersDetailProductsImgsMapper dealersDetailProductsImgsMapper;</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B15" s="43" t="s">
         <v>53</v>
       </c>
@@ -2362,7 +2412,7 @@
         <v>@Autowired private DealersDetailProductsSaledateMapper dealersDetailProductsSaledateMapper;</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B16" s="43" t="s">
         <v>23</v>
       </c>
@@ -2387,7 +2437,7 @@
         <v>@Autowired private EventDatesMapper eventDatesMapper;</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B17" s="43" t="s">
         <v>12</v>
       </c>
@@ -2412,7 +2462,7 @@
         <v>@Autowired private UsrMapper usrMapper;</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B18" s="43" t="s">
         <v>4</v>
       </c>
@@ -2437,7 +2487,7 @@
         <v>@Autowired private UsrDetailFavProductsMapper usrDetailFavProductsMapper;</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B19" s="43" t="s">
         <v>104</v>
       </c>
@@ -2462,12 +2512,12 @@
         <v>@Autowired private UsrRoleMapper usrRoleMapper;</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B22" s="28" t="s">
         <v>116</v>
       </c>
@@ -2485,7 +2535,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B23" s="43" t="s">
         <v>117</v>
       </c>
@@ -2506,7 +2556,7 @@
         <v>@Autowired private DealerSearchMapper dealerSearchMapper;</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B24" s="43" t="s">
         <v>121</v>
       </c>
@@ -2527,7 +2577,7 @@
         <v>@Autowired private UserSearchMapper userSearchMapper;</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B25" s="43" t="s">
         <v>121</v>
       </c>
@@ -2548,7 +2598,7 @@
         <v>@Autowired private AccountInfoSearchMapper accountInfoSearchMapper;</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B26" s="43" t="s">
         <v>125</v>
       </c>
@@ -2576,18 +2626,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="B2:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="27.875" customWidth="1"/>
-    <col min="3" max="3" width="40.25" customWidth="1"/>
+    <col min="2" max="2" width="27.90625" customWidth="1"/>
+    <col min="3" max="3" width="40.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>140</v>
       </c>
@@ -2595,168 +2647,176 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>142</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C5" t="s">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C6" t="s">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B8" t="s">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
         <v>136</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C10" t="s">
         <v>137</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D10" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B9" s="34" t="str">
-        <f>SUBSTITUTE(C9,".csv","")</f>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="34" t="str">
+        <f>SUBSTITUTE(C11,".csv","")</f>
         <v>wfs.usr</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C11" t="s">
         <v>126</v>
       </c>
-      <c r="D9" s="44" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE($C$3,"CSV",$C9),"TABLE",$B9)</f>
-        <v>\copy wfs.usr from 'D:/MyEdocument/MyPG/webapl/WonFesSys/WFS_Design/01.設計/data/初回データ/wfs.usr.csv' delimiter ',' csv header;</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B10" s="34" t="str">
-        <f t="shared" ref="B10:B18" si="0">SUBSTITUTE(C10,".csv","")</f>
+      <c r="D11" s="44" t="str">
+        <f t="shared" ref="D11:D20" si="0">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C$3,"CSV",$C11),"TABLE",$B11),"PATH",$C$9)</f>
+        <v>\copy wfs.usr from 'C:\work\tool\webapl\WonFesSys\WFS_Design\01.設計\data\初回データ\wfs.usr.csv' delimiter ',' csv header;</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B12" s="34" t="str">
+        <f t="shared" ref="B12:B20" si="1">SUBSTITUTE(C12,".csv","")</f>
         <v>wfs.usr_detail_fav_products</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C12" t="s">
         <v>127</v>
       </c>
-      <c r="D10" s="44" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE($C$3,"CSV",$C10),"TABLE",$B10)</f>
-        <v>\copy wfs.usr_detail_fav_products from 'D:/MyEdocument/MyPG/webapl/WonFesSys/WFS_Design/01.設計/data/初回データ/wfs.usr_detail_fav_products.csv' delimiter ',' csv header;</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B11" s="34" t="str">
-        <f t="shared" si="0"/>
+      <c r="D12" s="44" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C$3,"CSV",$C12),"TABLE",$B12),"PATH",$C$9)</f>
+        <v>\copy wfs.usr_detail_fav_products from 'C:\work\tool\webapl\WonFesSys\WFS_Design\01.設計\data\初回データ\wfs.usr_detail_fav_products.csv' delimiter ',' csv header;</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="34" t="str">
+        <f t="shared" si="1"/>
         <v>wfs.usr_role</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C13" t="s">
         <v>128</v>
       </c>
-      <c r="D11" s="44" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE($C$3,"CSV",$C11),"TABLE",$B11)</f>
-        <v>\copy wfs.usr_role from 'D:/MyEdocument/MyPG/webapl/WonFesSys/WFS_Design/01.設計/data/初回データ/wfs.usr_role.csv' delimiter ',' csv header;</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B12" s="34" t="str">
-        <f t="shared" si="0"/>
+      <c r="D13" s="44" t="str">
+        <f t="shared" ref="D13:D20" si="2">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C$3,"CSV",$C13),"TABLE",$B13),"PATH",$C$9)</f>
+        <v>\copy wfs.usr_role from 'C:\work\tool\webapl\WonFesSys\WFS_Design\01.設計\data\初回データ\wfs.usr_role.csv' delimiter ',' csv header;</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B14" s="34" t="str">
+        <f t="shared" si="1"/>
         <v>wfs.categories</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C14" t="s">
         <v>129</v>
       </c>
-      <c r="D12" s="44" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE($C$3,"CSV",$C12),"TABLE",$B12)</f>
-        <v>\copy wfs.categories from 'D:/MyEdocument/MyPG/webapl/WonFesSys/WFS_Design/01.設計/data/初回データ/wfs.categories.csv' delimiter ',' csv header;</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B13" s="34" t="str">
-        <f t="shared" si="0"/>
+      <c r="D14" s="44" t="str">
+        <f t="shared" si="2"/>
+        <v>\copy wfs.categories from 'C:\work\tool\webapl\WonFesSys\WFS_Design\01.設計\data\初回データ\wfs.categories.csv' delimiter ',' csv header;</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B15" s="34" t="str">
+        <f t="shared" si="1"/>
         <v>wfs.event_dates</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C15" t="s">
         <v>130</v>
       </c>
-      <c r="D13" s="44" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE($C$3,"CSV",$C13),"TABLE",$B13)</f>
-        <v>\copy wfs.event_dates from 'D:/MyEdocument/MyPG/webapl/WonFesSys/WFS_Design/01.設計/data/初回データ/wfs.event_dates.csv' delimiter ',' csv header;</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B14" s="34" t="str">
-        <f t="shared" si="0"/>
+      <c r="D15" s="44" t="str">
+        <f t="shared" si="2"/>
+        <v>\copy wfs.event_dates from 'C:\work\tool\webapl\WonFesSys\WFS_Design\01.設計\data\初回データ\wfs.event_dates.csv' delimiter ',' csv header;</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B16" s="34" t="str">
+        <f t="shared" si="1"/>
         <v>wfs.dealers</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C16" t="s">
         <v>131</v>
       </c>
-      <c r="D14" s="44" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE($C$3,"CSV",$C14),"TABLE",$B14)</f>
-        <v>\copy wfs.dealers from 'D:/MyEdocument/MyPG/webapl/WonFesSys/WFS_Design/01.設計/data/初回データ/wfs.dealers.csv' delimiter ',' csv header;</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B15" s="34" t="str">
-        <f t="shared" si="0"/>
+      <c r="D16" s="44" t="str">
+        <f t="shared" si="2"/>
+        <v>\copy wfs.dealers from 'C:\work\tool\webapl\WonFesSys\WFS_Design\01.設計\data\初回データ\wfs.dealers.csv' delimiter ',' csv header;</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="34" t="str">
+        <f t="shared" si="1"/>
         <v>wfs.dealers_detail_products</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C17" t="s">
         <v>132</v>
       </c>
-      <c r="D15" s="44" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE($C$3,"CSV",$C15),"TABLE",$B15)</f>
-        <v>\copy wfs.dealers_detail_products from 'D:/MyEdocument/MyPG/webapl/WonFesSys/WFS_Design/01.設計/data/初回データ/wfs.dealers_detail_products.csv' delimiter ',' csv header;</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B16" s="34" t="str">
-        <f t="shared" si="0"/>
+      <c r="D17" s="44" t="str">
+        <f t="shared" si="2"/>
+        <v>\copy wfs.dealers_detail_products from 'C:\work\tool\webapl\WonFesSys\WFS_Design\01.設計\data\初回データ\wfs.dealers_detail_products.csv' delimiter ',' csv header;</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18" s="34" t="str">
+        <f t="shared" si="1"/>
         <v>wfs.dealers_detail_products_categories</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C18" t="s">
         <v>133</v>
       </c>
-      <c r="D16" s="44" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE($C$3,"CSV",$C16),"TABLE",$B16)</f>
-        <v>\copy wfs.dealers_detail_products_categories from 'D:/MyEdocument/MyPG/webapl/WonFesSys/WFS_Design/01.設計/data/初回データ/wfs.dealers_detail_products_categories.csv' delimiter ',' csv header;</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B17" s="34" t="str">
-        <f t="shared" si="0"/>
+      <c r="D18" s="44" t="str">
+        <f t="shared" si="2"/>
+        <v>\copy wfs.dealers_detail_products_categories from 'C:\work\tool\webapl\WonFesSys\WFS_Design\01.設計\data\初回データ\wfs.dealers_detail_products_categories.csv' delimiter ',' csv header;</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19" s="34" t="str">
+        <f t="shared" si="1"/>
         <v>wfs.dealers_detail_products_imgs</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C19" t="s">
         <v>134</v>
       </c>
-      <c r="D17" s="44" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE($C$3,"CSV",$C17),"TABLE",$B17)</f>
-        <v>\copy wfs.dealers_detail_products_imgs from 'D:/MyEdocument/MyPG/webapl/WonFesSys/WFS_Design/01.設計/data/初回データ/wfs.dealers_detail_products_imgs.csv' delimiter ',' csv header;</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B18" s="34" t="str">
-        <f t="shared" si="0"/>
+      <c r="D19" s="44" t="str">
+        <f t="shared" si="2"/>
+        <v>\copy wfs.dealers_detail_products_imgs from 'C:\work\tool\webapl\WonFesSys\WFS_Design\01.設計\data\初回データ\wfs.dealers_detail_products_imgs.csv' delimiter ',' csv header;</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B20" s="34" t="str">
+        <f t="shared" si="1"/>
         <v>wfs.dealers_detail_products_saledate</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C20" t="s">
         <v>135</v>
       </c>
-      <c r="D18" s="44" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE($C$3,"CSV",$C18),"TABLE",$B18)</f>
-        <v>\copy wfs.dealers_detail_products_saledate from 'D:/MyEdocument/MyPG/webapl/WonFesSys/WFS_Design/01.設計/data/初回データ/wfs.dealers_detail_products_saledate.csv' delimiter ',' csv header;</v>
+      <c r="D20" s="44" t="str">
+        <f t="shared" si="2"/>
+        <v>\copy wfs.dealers_detail_products_saledate from 'C:\work\tool\webapl\WonFesSys\WFS_Design\01.設計\data\初回データ\wfs.dealers_detail_products_saledate.csv' delimiter ',' csv header;</v>
       </c>
     </row>
   </sheetData>
